--- a/sensorsData.xlsx
+++ b/sensorsData.xlsx
@@ -8,19 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkhalzov/Documents/PlatformIO/Projects/190602-140824-uno/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{05404D1A-6C92-B648-8BA4-2942899E5401}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E55C5C9C-4F6F-9D4A-B380-083A8729952C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28600" windowHeight="16540"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28600" windowHeight="16540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="sensorsData" sheetId="1" r:id="rId1"/>
+    <sheet name="sensorsData (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="7">
+  <si>
+    <t>State: Initial setup</t>
+  </si>
   <si>
     <t>State: Continues</t>
   </si>
@@ -2313,6 +2317,2414 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'sensorsData (2)'!$A$1:$A$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="104"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F950-864D-8200-729277D65AA2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'sensorsData (2)'!$B$1:$B$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="104"/>
+                <c:pt idx="1">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F950-864D-8200-729277D65AA2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'sensorsData (2)'!$C$1:$C$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="104"/>
+                <c:pt idx="1">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>105</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F950-864D-8200-729277D65AA2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'sensorsData (2)'!$D$1:$D$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="104"/>
+                <c:pt idx="1">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>133</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F950-864D-8200-729277D65AA2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="244289087"/>
+        <c:axId val="223767471"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="244289087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="223767471"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="223767471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="244289087"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>('sensorsData (2)'!$A$2:$A$8,'sensorsData (2)'!$A$10:$A$13,'sensorsData (2)'!$A$15:$A$21,'sensorsData (2)'!$A$23:$A$26,'sensorsData (2)'!$A$28:$A$34,'sensorsData (2)'!$A$36:$A$39,'sensorsData (2)'!$A$41:$A$47,'sensorsData (2)'!$A$49:$A$52)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>117</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-17D9-E545-9E35-19BA757EA149}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>('sensorsData (2)'!$B$2:$B$8,'sensorsData (2)'!$B$10:$B$13,'sensorsData (2)'!$B$15:$B$21,'sensorsData (2)'!$B$23:$B$26,'sensorsData (2)'!$B$28:$B$34,'sensorsData (2)'!$B$36:$B$39,'sensorsData (2)'!$B$41:$B$47,'sensorsData (2)'!$B$49:$B$52)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>119</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-17D9-E545-9E35-19BA757EA149}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>('sensorsData (2)'!$C$2:$C$8,'sensorsData (2)'!$C$10:$C$13,'sensorsData (2)'!$C$15:$C$21,'sensorsData (2)'!$C$23:$C$26,'sensorsData (2)'!$C$28:$C$34,'sensorsData (2)'!$C$36:$C$39,'sensorsData (2)'!$C$41:$C$47,'sensorsData (2)'!$C$49:$C$52)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>104</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-17D9-E545-9E35-19BA757EA149}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>('sensorsData (2)'!$D$2:$D$8,'sensorsData (2)'!$D$10:$D$13,'sensorsData (2)'!$D$15:$D$21,'sensorsData (2)'!$D$23:$D$26,'sensorsData (2)'!$D$28:$D$34,'sensorsData (2)'!$D$36:$D$39,'sensorsData (2)'!$D$41:$D$47,'sensorsData (2)'!$D$49:$D$52)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>134</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-17D9-E545-9E35-19BA757EA149}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="244289087"/>
+        <c:axId val="223767471"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="244289087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="223767471"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="223767471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="244289087"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2393,6 +4805,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2910,6 +5402,1038 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3482,6 +7006,87 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0C1B54D-6D4F-C744-B997-C0E5CE08B39C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D9932BE-296E-004F-94E9-B038A068072C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1024F838-3E9B-CD4C-831F-F3FFC8A93E4D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3803,8 +7408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3817,10 +7422,10 @@
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3831,7 +7436,7 @@
         <v>102</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3920,7 +7525,7 @@
     </row>
     <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -3953,7 +7558,7 @@
     </row>
     <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -4056,7 +7661,7 @@
     </row>
     <row r="20" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -4089,7 +7694,7 @@
     </row>
     <row r="23" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -4192,7 +7797,7 @@
     </row>
     <row r="31" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -4225,7 +7830,7 @@
     </row>
     <row r="34" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -4328,7 +7933,7 @@
     </row>
     <row r="42" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -4357,6 +7962,1346 @@
       </c>
       <c r="D44" s="4">
         <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D104"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="10.83203125" style="2"/>
+    <col min="3" max="3" width="10.83203125" style="3"/>
+    <col min="4" max="4" width="10.83203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>104</v>
+      </c>
+      <c r="B2" s="2">
+        <v>104</v>
+      </c>
+      <c r="C2" s="3">
+        <v>91</v>
+      </c>
+      <c r="D2" s="4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>136</v>
+      </c>
+      <c r="B3" s="2">
+        <v>136</v>
+      </c>
+      <c r="C3" s="3">
+        <v>124</v>
+      </c>
+      <c r="D3" s="4">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>145</v>
+      </c>
+      <c r="B4" s="2">
+        <v>152</v>
+      </c>
+      <c r="C4" s="3">
+        <v>133</v>
+      </c>
+      <c r="D4" s="4">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>152</v>
+      </c>
+      <c r="B5" s="2">
+        <v>161</v>
+      </c>
+      <c r="C5" s="3">
+        <v>144</v>
+      </c>
+      <c r="D5" s="4">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>159</v>
+      </c>
+      <c r="B6" s="2">
+        <v>167</v>
+      </c>
+      <c r="C6" s="3">
+        <v>153</v>
+      </c>
+      <c r="D6" s="4">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>164</v>
+      </c>
+      <c r="B7" s="2">
+        <v>173</v>
+      </c>
+      <c r="C7" s="3">
+        <v>160</v>
+      </c>
+      <c r="D7" s="4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>168</v>
+      </c>
+      <c r="B8" s="2">
+        <v>176</v>
+      </c>
+      <c r="C8" s="3">
+        <v>166</v>
+      </c>
+      <c r="D8" s="4">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>172</v>
+      </c>
+      <c r="B10" s="2">
+        <v>184</v>
+      </c>
+      <c r="C10" s="3">
+        <v>174</v>
+      </c>
+      <c r="D10" s="4">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>176</v>
+      </c>
+      <c r="B11" s="2">
+        <v>187</v>
+      </c>
+      <c r="C11" s="3">
+        <v>181</v>
+      </c>
+      <c r="D11" s="4">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>176</v>
+      </c>
+      <c r="B12" s="2">
+        <v>188</v>
+      </c>
+      <c r="C12" s="3">
+        <v>181</v>
+      </c>
+      <c r="D12" s="4">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>175</v>
+      </c>
+      <c r="B13" s="2">
+        <v>187</v>
+      </c>
+      <c r="C13" s="3">
+        <v>181</v>
+      </c>
+      <c r="D13" s="4">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>171</v>
+      </c>
+      <c r="B15" s="2">
+        <v>182</v>
+      </c>
+      <c r="C15" s="3">
+        <v>175</v>
+      </c>
+      <c r="D15" s="4">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>168</v>
+      </c>
+      <c r="B16" s="2">
+        <v>176</v>
+      </c>
+      <c r="C16" s="3">
+        <v>167</v>
+      </c>
+      <c r="D16" s="4">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>165</v>
+      </c>
+      <c r="B17" s="2">
+        <v>172</v>
+      </c>
+      <c r="C17" s="3">
+        <v>163</v>
+      </c>
+      <c r="D17" s="4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>160</v>
+      </c>
+      <c r="B18" s="2">
+        <v>167</v>
+      </c>
+      <c r="C18" s="3">
+        <v>155</v>
+      </c>
+      <c r="D18" s="4">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>155</v>
+      </c>
+      <c r="B19" s="2">
+        <v>160</v>
+      </c>
+      <c r="C19" s="3">
+        <v>147</v>
+      </c>
+      <c r="D19" s="4">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>148</v>
+      </c>
+      <c r="B20" s="2">
+        <v>151</v>
+      </c>
+      <c r="C20" s="3">
+        <v>138</v>
+      </c>
+      <c r="D20" s="4">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>139</v>
+      </c>
+      <c r="B21" s="2">
+        <v>140</v>
+      </c>
+      <c r="C21" s="3">
+        <v>131</v>
+      </c>
+      <c r="D21" s="4">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>129</v>
+      </c>
+      <c r="B23" s="2">
+        <v>128</v>
+      </c>
+      <c r="C23" s="3">
+        <v>109</v>
+      </c>
+      <c r="D23" s="4">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>121</v>
+      </c>
+      <c r="B24" s="2">
+        <v>119</v>
+      </c>
+      <c r="C24" s="3">
+        <v>103</v>
+      </c>
+      <c r="D24" s="4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>119</v>
+      </c>
+      <c r="B25" s="2">
+        <v>119</v>
+      </c>
+      <c r="C25" s="3">
+        <v>102</v>
+      </c>
+      <c r="D25" s="4">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>119</v>
+      </c>
+      <c r="B26" s="2">
+        <v>119</v>
+      </c>
+      <c r="C26" s="3">
+        <v>102</v>
+      </c>
+      <c r="D26" s="4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>126</v>
+      </c>
+      <c r="B28" s="2">
+        <v>126</v>
+      </c>
+      <c r="C28" s="3">
+        <v>111</v>
+      </c>
+      <c r="D28" s="4">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>137</v>
+      </c>
+      <c r="B29" s="2">
+        <v>138</v>
+      </c>
+      <c r="C29" s="3">
+        <v>126</v>
+      </c>
+      <c r="D29" s="4">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>146</v>
+      </c>
+      <c r="B30" s="2">
+        <v>152</v>
+      </c>
+      <c r="C30" s="3">
+        <v>135</v>
+      </c>
+      <c r="D30" s="4">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>153</v>
+      </c>
+      <c r="B31" s="2">
+        <v>161</v>
+      </c>
+      <c r="C31" s="3">
+        <v>149</v>
+      </c>
+      <c r="D31" s="4">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>158</v>
+      </c>
+      <c r="B32" s="2">
+        <v>167</v>
+      </c>
+      <c r="C32" s="3">
+        <v>157</v>
+      </c>
+      <c r="D32" s="4">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>163</v>
+      </c>
+      <c r="B33" s="2">
+        <v>172</v>
+      </c>
+      <c r="C33" s="3">
+        <v>162</v>
+      </c>
+      <c r="D33" s="4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>167</v>
+      </c>
+      <c r="B34" s="2">
+        <v>176</v>
+      </c>
+      <c r="C34" s="3">
+        <v>167</v>
+      </c>
+      <c r="D34" s="4">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>171</v>
+      </c>
+      <c r="B36" s="2">
+        <v>183</v>
+      </c>
+      <c r="C36" s="3">
+        <v>176</v>
+      </c>
+      <c r="D36" s="4">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>175</v>
+      </c>
+      <c r="B37" s="2">
+        <v>187</v>
+      </c>
+      <c r="C37" s="3">
+        <v>181</v>
+      </c>
+      <c r="D37" s="4">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>175</v>
+      </c>
+      <c r="B38" s="2">
+        <v>187</v>
+      </c>
+      <c r="C38" s="3">
+        <v>183</v>
+      </c>
+      <c r="D38" s="4">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>175</v>
+      </c>
+      <c r="B39" s="2">
+        <v>187</v>
+      </c>
+      <c r="C39" s="3">
+        <v>184</v>
+      </c>
+      <c r="D39" s="4">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>171</v>
+      </c>
+      <c r="B41" s="2">
+        <v>182</v>
+      </c>
+      <c r="C41" s="3">
+        <v>176</v>
+      </c>
+      <c r="D41" s="4">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>167</v>
+      </c>
+      <c r="B42" s="2">
+        <v>176</v>
+      </c>
+      <c r="C42" s="3">
+        <v>170</v>
+      </c>
+      <c r="D42" s="4">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>165</v>
+      </c>
+      <c r="B43" s="2">
+        <v>173</v>
+      </c>
+      <c r="C43" s="3">
+        <v>165</v>
+      </c>
+      <c r="D43" s="4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>161</v>
+      </c>
+      <c r="B44" s="2">
+        <v>167</v>
+      </c>
+      <c r="C44" s="3">
+        <v>159</v>
+      </c>
+      <c r="D44" s="4">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>153</v>
+      </c>
+      <c r="B45" s="2">
+        <v>160</v>
+      </c>
+      <c r="C45" s="3">
+        <v>151</v>
+      </c>
+      <c r="D45" s="4">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>146</v>
+      </c>
+      <c r="B46" s="2">
+        <v>152</v>
+      </c>
+      <c r="C46" s="3">
+        <v>141</v>
+      </c>
+      <c r="D46" s="4">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>138</v>
+      </c>
+      <c r="B47" s="2">
+        <v>141</v>
+      </c>
+      <c r="C47" s="3">
+        <v>132</v>
+      </c>
+      <c r="D47" s="4">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>125</v>
+      </c>
+      <c r="B49" s="2">
+        <v>127</v>
+      </c>
+      <c r="C49" s="3">
+        <v>112</v>
+      </c>
+      <c r="D49" s="4">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>118</v>
+      </c>
+      <c r="B50" s="2">
+        <v>119</v>
+      </c>
+      <c r="C50" s="3">
+        <v>105</v>
+      </c>
+      <c r="D50" s="4">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>119</v>
+      </c>
+      <c r="B51" s="2">
+        <v>119</v>
+      </c>
+      <c r="C51" s="3">
+        <v>105</v>
+      </c>
+      <c r="D51" s="4">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>117</v>
+      </c>
+      <c r="B52" s="2">
+        <v>119</v>
+      </c>
+      <c r="C52" s="3">
+        <v>104</v>
+      </c>
+      <c r="D52" s="4">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>125</v>
+      </c>
+      <c r="B54" s="2">
+        <v>126</v>
+      </c>
+      <c r="C54" s="3">
+        <v>112</v>
+      </c>
+      <c r="D54" s="4">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>135</v>
+      </c>
+      <c r="B55" s="2">
+        <v>138</v>
+      </c>
+      <c r="C55" s="3">
+        <v>128</v>
+      </c>
+      <c r="D55" s="4">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>146</v>
+      </c>
+      <c r="B56" s="2">
+        <v>152</v>
+      </c>
+      <c r="C56" s="3">
+        <v>136</v>
+      </c>
+      <c r="D56" s="4">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>152</v>
+      </c>
+      <c r="B57" s="2">
+        <v>161</v>
+      </c>
+      <c r="C57" s="3">
+        <v>150</v>
+      </c>
+      <c r="D57" s="4">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>158</v>
+      </c>
+      <c r="B58" s="2">
+        <v>167</v>
+      </c>
+      <c r="C58" s="3">
+        <v>158</v>
+      </c>
+      <c r="D58" s="4">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>163</v>
+      </c>
+      <c r="B59" s="2">
+        <v>172</v>
+      </c>
+      <c r="C59" s="3">
+        <v>164</v>
+      </c>
+      <c r="D59" s="4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>166</v>
+      </c>
+      <c r="B60" s="2">
+        <v>176</v>
+      </c>
+      <c r="C60" s="3">
+        <v>169</v>
+      </c>
+      <c r="D60" s="4">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>170</v>
+      </c>
+      <c r="B62" s="2">
+        <v>182</v>
+      </c>
+      <c r="C62" s="3">
+        <v>177</v>
+      </c>
+      <c r="D62" s="4">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>175</v>
+      </c>
+      <c r="B63" s="2">
+        <v>188</v>
+      </c>
+      <c r="C63" s="3">
+        <v>182</v>
+      </c>
+      <c r="D63" s="4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>175</v>
+      </c>
+      <c r="B64" s="2">
+        <v>188</v>
+      </c>
+      <c r="C64" s="3">
+        <v>183</v>
+      </c>
+      <c r="D64" s="4">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>174</v>
+      </c>
+      <c r="B65" s="2">
+        <v>187</v>
+      </c>
+      <c r="C65" s="3">
+        <v>183</v>
+      </c>
+      <c r="D65" s="4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>170</v>
+      </c>
+      <c r="B67" s="2">
+        <v>182</v>
+      </c>
+      <c r="C67" s="3">
+        <v>176</v>
+      </c>
+      <c r="D67" s="4">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>167</v>
+      </c>
+      <c r="B68" s="2">
+        <v>177</v>
+      </c>
+      <c r="C68" s="3">
+        <v>170</v>
+      </c>
+      <c r="D68" s="4">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>163</v>
+      </c>
+      <c r="B69" s="2">
+        <v>171</v>
+      </c>
+      <c r="C69" s="3">
+        <v>163</v>
+      </c>
+      <c r="D69" s="4">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>159</v>
+      </c>
+      <c r="B70" s="2">
+        <v>167</v>
+      </c>
+      <c r="C70" s="3">
+        <v>158</v>
+      </c>
+      <c r="D70" s="4">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>152</v>
+      </c>
+      <c r="B71" s="2">
+        <v>160</v>
+      </c>
+      <c r="C71" s="3">
+        <v>149</v>
+      </c>
+      <c r="D71" s="4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>146</v>
+      </c>
+      <c r="B72" s="2">
+        <v>152</v>
+      </c>
+      <c r="C72" s="3">
+        <v>140</v>
+      </c>
+      <c r="D72" s="4">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>137</v>
+      </c>
+      <c r="B73" s="2">
+        <v>140</v>
+      </c>
+      <c r="C73" s="3">
+        <v>131</v>
+      </c>
+      <c r="D73" s="4">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>124</v>
+      </c>
+      <c r="B75" s="2">
+        <v>130</v>
+      </c>
+      <c r="C75" s="3">
+        <v>113</v>
+      </c>
+      <c r="D75" s="4">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>119</v>
+      </c>
+      <c r="B76" s="2">
+        <v>119</v>
+      </c>
+      <c r="C76" s="3">
+        <v>105</v>
+      </c>
+      <c r="D76" s="4">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>119</v>
+      </c>
+      <c r="B77" s="2">
+        <v>120</v>
+      </c>
+      <c r="C77" s="3">
+        <v>105</v>
+      </c>
+      <c r="D77" s="4">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>118</v>
+      </c>
+      <c r="B78" s="2">
+        <v>119</v>
+      </c>
+      <c r="C78" s="3">
+        <v>106</v>
+      </c>
+      <c r="D78" s="4">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>126</v>
+      </c>
+      <c r="B80" s="2">
+        <v>127</v>
+      </c>
+      <c r="C80" s="3">
+        <v>112</v>
+      </c>
+      <c r="D80" s="4">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>138</v>
+      </c>
+      <c r="B81" s="2">
+        <v>136</v>
+      </c>
+      <c r="C81" s="3">
+        <v>130</v>
+      </c>
+      <c r="D81" s="4">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>147</v>
+      </c>
+      <c r="B82" s="2">
+        <v>152</v>
+      </c>
+      <c r="C82" s="3">
+        <v>137</v>
+      </c>
+      <c r="D82" s="4">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>153</v>
+      </c>
+      <c r="B83" s="2">
+        <v>161</v>
+      </c>
+      <c r="C83" s="3">
+        <v>152</v>
+      </c>
+      <c r="D83" s="4">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>159</v>
+      </c>
+      <c r="B84" s="2">
+        <v>166</v>
+      </c>
+      <c r="C84" s="3">
+        <v>160</v>
+      </c>
+      <c r="D84" s="4">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>165</v>
+      </c>
+      <c r="B85" s="2">
+        <v>173</v>
+      </c>
+      <c r="C85" s="3">
+        <v>166</v>
+      </c>
+      <c r="D85" s="4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>167</v>
+      </c>
+      <c r="B86" s="2">
+        <v>177</v>
+      </c>
+      <c r="C86" s="3">
+        <v>171</v>
+      </c>
+      <c r="D86" s="4">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>173</v>
+      </c>
+      <c r="B88" s="2">
+        <v>183</v>
+      </c>
+      <c r="C88" s="3">
+        <v>178</v>
+      </c>
+      <c r="D88" s="4">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>176</v>
+      </c>
+      <c r="B89" s="2">
+        <v>188</v>
+      </c>
+      <c r="C89" s="3">
+        <v>184</v>
+      </c>
+      <c r="D89" s="4">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>176</v>
+      </c>
+      <c r="B90" s="2">
+        <v>187</v>
+      </c>
+      <c r="C90" s="3">
+        <v>186</v>
+      </c>
+      <c r="D90" s="4">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>176</v>
+      </c>
+      <c r="B91" s="2">
+        <v>187</v>
+      </c>
+      <c r="C91" s="3">
+        <v>186</v>
+      </c>
+      <c r="D91" s="4">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>172</v>
+      </c>
+      <c r="B93" s="2">
+        <v>182</v>
+      </c>
+      <c r="C93" s="3">
+        <v>179</v>
+      </c>
+      <c r="D93" s="4">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>168</v>
+      </c>
+      <c r="B94" s="2">
+        <v>176</v>
+      </c>
+      <c r="C94" s="3">
+        <v>171</v>
+      </c>
+      <c r="D94" s="4">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>164</v>
+      </c>
+      <c r="B95" s="2">
+        <v>172</v>
+      </c>
+      <c r="C95" s="3">
+        <v>167</v>
+      </c>
+      <c r="D95" s="4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>159</v>
+      </c>
+      <c r="B96" s="2">
+        <v>166</v>
+      </c>
+      <c r="C96" s="3">
+        <v>159</v>
+      </c>
+      <c r="D96" s="4">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>154</v>
+      </c>
+      <c r="B97" s="2">
+        <v>161</v>
+      </c>
+      <c r="C97" s="3">
+        <v>151</v>
+      </c>
+      <c r="D97" s="4">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>147</v>
+      </c>
+      <c r="B98" s="2">
+        <v>153</v>
+      </c>
+      <c r="C98" s="3">
+        <v>143</v>
+      </c>
+      <c r="D98" s="4">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>139</v>
+      </c>
+      <c r="B99" s="2">
+        <v>141</v>
+      </c>
+      <c r="C99" s="3">
+        <v>134</v>
+      </c>
+      <c r="D99" s="4">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>126</v>
+      </c>
+      <c r="B101" s="2">
+        <v>129</v>
+      </c>
+      <c r="C101" s="3">
+        <v>115</v>
+      </c>
+      <c r="D101" s="4">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>121</v>
+      </c>
+      <c r="B102" s="2">
+        <v>120</v>
+      </c>
+      <c r="C102" s="3">
+        <v>108</v>
+      </c>
+      <c r="D102" s="4">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>120</v>
+      </c>
+      <c r="B103" s="2">
+        <v>120</v>
+      </c>
+      <c r="C103" s="3">
+        <v>106</v>
+      </c>
+      <c r="D103" s="4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>120</v>
+      </c>
+      <c r="B104" s="2">
+        <v>120</v>
+      </c>
+      <c r="C104" s="3">
+        <v>105</v>
+      </c>
+      <c r="D104" s="4">
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/sensorsData.xlsx
+++ b/sensorsData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkhalzov/Documents/PlatformIO/Projects/190602-140824-uno/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E55C5C9C-4F6F-9D4A-B380-083A8729952C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{7E060136-B1C9-1447-AB59-070FEF920C7E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28600" windowHeight="16540" activeTab="1"/>
   </bookViews>
@@ -16,12 +16,20 @@
     <sheet name="sensorsData" sheetId="1" r:id="rId1"/>
     <sheet name="sensorsData (2)" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="8">
   <si>
     <t>State: Initial setup</t>
   </si>
@@ -42,6 +50,9 @@
   </si>
   <si>
     <t>Speed up</t>
+  </si>
+  <si>
+    <t>Max value</t>
   </si>
 </sst>
 </file>
@@ -7408,8 +7419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7972,10 +7983,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8592,7 +8603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>125</v>
       </c>
@@ -8606,7 +8617,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>118</v>
       </c>
@@ -8620,7 +8631,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>119</v>
       </c>
@@ -8634,7 +8645,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>117</v>
       </c>
@@ -8648,12 +8659,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>125</v>
       </c>
@@ -8667,7 +8678,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>135</v>
       </c>
@@ -8681,7 +8692,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>146</v>
       </c>
@@ -8695,7 +8706,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>152</v>
       </c>
@@ -8709,7 +8720,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>158</v>
       </c>
@@ -8723,7 +8734,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>163</v>
       </c>
@@ -8737,7 +8748,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>166</v>
       </c>
@@ -8751,12 +8762,12 @@
         <v>175</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>170</v>
       </c>
@@ -8769,8 +8780,15 @@
       <c r="D62" s="4">
         <v>179</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F62" t="s">
+        <v>7</v>
+      </c>
+      <c r="H62">
+        <f>MAX(A1:D104)</f>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>175</v>
       </c>
@@ -8784,7 +8802,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>175</v>
       </c>
